--- a/Selenium_Java_Allure/target/test-classes/locators.xlsx
+++ b/Selenium_Java_Allure/target/test-classes/locators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ\Selenium_Java_Allure\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD0C39C-F511-49F4-B35D-DCA81961151F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2E4AA8-903D-40E6-9F51-3D249B711C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92E628A6-DB3B-4A03-A053-554032AEE4F6}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Locator Name</t>
   </si>
@@ -94,9 +94,6 @@
     <t>//div[@id='charge-item-create_gstApplicable']//input[@class='ant-radio-input' and @value='true']</t>
   </si>
   <si>
-    <t>gstApplicable</t>
-  </si>
-  <si>
     <t>charge-item-create_amount</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>glNumberId</t>
   </si>
   <si>
-    <t>glNumberId1</t>
-  </si>
-  <si>
     <t>//div[@title='001']</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>//div[@id='charge-item-create_tagToRegistration']//input[@class='ant-radio-input' and @value='true']</t>
   </si>
   <si>
-    <t>tagToRegistration</t>
-  </si>
-  <si>
     <t>//button[@type='button']//span[contains(text(), 'Save')]</t>
   </si>
   <si>
@@ -158,13 +149,100 @@
   </si>
   <si>
     <t>url1</t>
+  </si>
+  <si>
+    <t>url2</t>
+  </si>
+  <si>
+    <t>https://cls.dmo.lhubsg.com/billing/billing-configuration/charge-items</t>
+  </si>
+  <si>
+    <t>//div[@title='Admin']</t>
+  </si>
+  <si>
+    <t>adminCTId</t>
+  </si>
+  <si>
+    <t>usdBCId</t>
+  </si>
+  <si>
+    <t>//div[@title='USD']</t>
+  </si>
+  <si>
+    <t>//div[@id='charge-item-create_gstApplicable']//input[@class='ant-radio-input' and @value='false']</t>
+  </si>
+  <si>
+    <t>gstApplicableTrue</t>
+  </si>
+  <si>
+    <t>gstApplicableFalse</t>
+  </si>
+  <si>
+    <t>//div[@title='002']</t>
+  </si>
+  <si>
+    <t>//div[@id='charge-item-create_tagToRegistration']//input[@class='ant-radio-input' and @value='false']</t>
+  </si>
+  <si>
+    <t>tagToRegistrationTrue</t>
+  </si>
+  <si>
+    <t>tagToRegistrationFalse</t>
+  </si>
+  <si>
+    <t>charge-item-create_profitCentreId</t>
+  </si>
+  <si>
+    <t>profitCentreId</t>
+  </si>
+  <si>
+    <t>//div[@title='PC 1']</t>
+  </si>
+  <si>
+    <t>profitCentreIdValue1</t>
+  </si>
+  <si>
+    <t>glNumberIdValue1</t>
+  </si>
+  <si>
+    <t>glNumberIdValue2</t>
+  </si>
+  <si>
+    <t>//div[@title='Duplicate Invoice']</t>
+  </si>
+  <si>
+    <t>duplicateInvoiceId</t>
+  </si>
+  <si>
+    <t>//div[@title='005']</t>
+  </si>
+  <si>
+    <t>glNumberIdValue3</t>
+  </si>
+  <si>
+    <t>//div[@title='PC 2']</t>
+  </si>
+  <si>
+    <t>profitCentreIdValue2</t>
+  </si>
+  <si>
+    <t>//div[@title='General']</t>
+  </si>
+  <si>
+    <t>generalId</t>
+  </si>
+  <si>
+    <t>//div[@title='006']</t>
+  </si>
+  <si>
+    <t>glNumberIdValue4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +373,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1018,15 +1102,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E1308D-C657-4FB8-BD6E-9EA8C24FE1BF}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1040,7 +1124,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1048,173 +1132,278 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Selenium_Java_Allure/target/test-classes/locators.xlsx
+++ b/Selenium_Java_Allure/target/test-classes/locators.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ\Selenium_Java_Allure\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2E4AA8-903D-40E6-9F51-3D249B711C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD574B42-2D3A-4084-928D-64C28A9F33EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92E628A6-DB3B-4A03-A053-554032AEE4F6}"/>
   </bookViews>
   <sheets>
     <sheet name="locators" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Locator Name</t>
   </si>
@@ -236,6 +249,102 @@
   </si>
   <si>
     <t>glNumberIdValue4</t>
+  </si>
+  <si>
+    <t>errorMessage1</t>
+  </si>
+  <si>
+    <t>//div[@id='charge-item-create_name_help']//div[@class='ant-form-item-explain-error']</t>
+  </si>
+  <si>
+    <t>//div[@class='ant-form-item-explain-error']</t>
+  </si>
+  <si>
+    <t>mandatoryErrorMessage1</t>
+  </si>
+  <si>
+    <t>//button[contains(@class, 'ant-btn-default')]//span[contains(text(), 'Cancel')]</t>
+  </si>
+  <si>
+    <t>cancelBtn</t>
+  </si>
+  <si>
+    <t>//div[@class='ant-modal-confirm-content']</t>
+  </si>
+  <si>
+    <t>modalConfirmContent</t>
+  </si>
+  <si>
+    <t>(//button[contains(@class, 'ant-btn-default')]//span[contains(text(), 'Cancel')])[2]</t>
+  </si>
+  <si>
+    <t>modalCancelBtn</t>
+  </si>
+  <si>
+    <t>url3</t>
+  </si>
+  <si>
+    <t>https://cls.dmo.lhubsg.com/billing/billing-configuration/charge-items/create</t>
+  </si>
+  <si>
+    <t>//span[@class='ant-input-suffix']//span[contains(text(), '200/200')]</t>
+  </si>
+  <si>
+    <t>maxTextArea</t>
+  </si>
+  <si>
+    <t>//h3[contains(text(), 'Create charge')]</t>
+  </si>
+  <si>
+    <t>createDrawerTitle</t>
+  </si>
+  <si>
+    <t>//div[contains(text(), 'Total')]</t>
+  </si>
+  <si>
+    <t>chargeTotalItem</t>
+  </si>
+  <si>
+    <t>//button[@data-testid='filter-funnel-btn']</t>
+  </si>
+  <si>
+    <t>funnelBtn</t>
+  </si>
+  <si>
+    <t>//div[@role='button']</t>
+  </si>
+  <si>
+    <t>colExpBtn</t>
+  </si>
+  <si>
+    <t>//input[@value='ACTIVE']</t>
+  </si>
+  <si>
+    <t>statusFilterActive</t>
+  </si>
+  <si>
+    <t>//button[contains(@class, 'ant-btn-primary')]//span[contains(text(), 'Apply')]</t>
+  </si>
+  <si>
+    <t>filterApplyBtn</t>
+  </si>
+  <si>
+    <t>//input[@value='INACTIVE']</t>
+  </si>
+  <si>
+    <t>statusFilterInactive</t>
+  </si>
+  <si>
+    <t>//tr[contains(@class, 'ant-table-row')]</t>
+  </si>
+  <si>
+    <t>chargeItemRow</t>
+  </si>
+  <si>
+    <t>//td[contains(@class, 'ant-table-cell-ellipsis')][9]</t>
+  </si>
+  <si>
+    <t>chargeItemColStatusList</t>
   </si>
 </sst>
 </file>
@@ -725,8 +834,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1102,23 +1212,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E1308D-C657-4FB8-BD6E-9EA8C24FE1BF}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1140,266 +1250,394 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>67</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B43" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
